--- a/doc/backend/api/TRN-MiniBlog_API-Specification_LeDong.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_LeDong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="957" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29020" windowHeight="17040" tabRatio="957" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Error Code" sheetId="21" r:id="rId4"/>
     <sheet name="API List" sheetId="46" r:id="rId5"/>
     <sheet name="Create user" sheetId="34" r:id="rId6"/>
+    <sheet name="login" sheetId="47" r:id="rId7"/>
+    <sheet name="logout" sheetId="48" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="253">
   <si>
     <t>Description</t>
   </si>
@@ -453,67 +455,67 @@
   </si>
   <si>
     <t>1.</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Number of occurrences</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Route</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>code</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Token</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>token</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>1.3.2 Response format (json) error</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Number</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Web</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Common JSON format</t>
@@ -582,9 +584,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://{domain}/v1/users</t>
-  </si>
-  <si>
     <t>User name</t>
   </si>
   <si>
@@ -594,9 +593,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>truong.vu</t>
-  </si>
-  <si>
     <t>Login user name.</t>
   </si>
   <si>
@@ -606,9 +602,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>abcd1234</t>
-  </si>
-  <si>
     <t>Will be encrypted when save to database.</t>
   </si>
   <si>
@@ -630,12 +623,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>Vu</t>
-  </si>
-  <si>
-    <t>Truong</t>
-  </si>
-  <si>
     <t>First name.</t>
   </si>
   <si>
@@ -652,9 +639,6 @@
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>truong.vu@mulodo.com</t>
   </si>
   <si>
     <t>User email address.</t>
@@ -849,16 +833,49 @@
       <t>ccount</t>
     </r>
   </si>
+  <si>
+    <t>http://localhost:8080/miniblog/account/register</t>
+  </si>
+  <si>
+    <t>le.dong</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Dong</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>le.dong@mulodo.com</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Creat_at</t>
+  </si>
+  <si>
+    <t>create_at</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>create at</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -866,7 +883,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -874,7 +898,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -882,7 +906,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -895,45 +919,45 @@
     <font>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF963634"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -948,7 +972,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1033,13 +1057,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -1064,6 +1081,12 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo Bold"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1311,684 +1334,682 @@
   </borders>
   <cellStyleXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="242" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="242" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="243" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="243" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="280" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="280" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1997,16 +2018,16 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,22 +2045,22 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="34" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2058,16 +2079,16 @@
     <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2082,176 +2103,188 @@
     <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2260,81 +2293,89 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="280" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="280" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="280" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="280" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3268,13 +3309,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>154668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1442811</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>86632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3399,13 +3440,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>61686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3800,13 +3841,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2267</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4420,77 +4461,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="163" t="s">
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="164"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166" t="s">
+      <c r="L1" s="199"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="169" t="s">
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="171"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="203"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161" t="s">
+      <c r="B2" s="191"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="193" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
       <c r="K2" s="175" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="176"/>
       <c r="M2" s="177"/>
-      <c r="N2" s="187" t="s">
+      <c r="N2" s="195" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="189"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="197"/>
       <c r="V2" s="172" t="s">
         <v>164</v>
       </c>
@@ -4527,190 +4568,190 @@
       </c>
       <c r="L3" s="176"/>
       <c r="M3" s="177"/>
-      <c r="N3" s="166" t="s">
+      <c r="N3" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="184"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="186"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="185"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="187"/>
+      <c r="AD3" s="188"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202" t="s">
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202" t="s">
+      <c r="G8" s="170"/>
+      <c r="H8" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202" t="s">
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="202"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="202"/>
-      <c r="W8" s="202"/>
-      <c r="X8" s="202" t="s">
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="202"/>
-      <c r="Z8" s="202"/>
-      <c r="AA8" s="202"/>
-      <c r="AB8" s="202"/>
-      <c r="AC8" s="202"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="171" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="193" t="s">
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="194"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="196"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="197"/>
-      <c r="S9" s="197"/>
-      <c r="T9" s="197"/>
-      <c r="U9" s="197"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="198"/>
-      <c r="X9" s="199"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="200"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="201"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="168"/>
+      <c r="AA9" s="168"/>
+      <c r="AB9" s="168"/>
+      <c r="AC9" s="169"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="195"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="199"/>
-      <c r="Y10" s="200"/>
-      <c r="Z10" s="200"/>
-      <c r="AA10" s="200"/>
-      <c r="AB10" s="200"/>
-      <c r="AC10" s="201"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="165"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="168"/>
+      <c r="AC10" s="169"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="195"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="199"/>
-      <c r="Y11" s="200"/>
-      <c r="Z11" s="200"/>
-      <c r="AA11" s="200"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="201"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="165"/>
+      <c r="U11" s="165"/>
+      <c r="V11" s="165"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="168"/>
+      <c r="AC11" s="169"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="195"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="199"/>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="200"/>
-      <c r="AA12" s="200"/>
-      <c r="AB12" s="200"/>
-      <c r="AC12" s="201"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="165"/>
+      <c r="S12" s="165"/>
+      <c r="T12" s="165"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="165"/>
+      <c r="W12" s="166"/>
+      <c r="X12" s="167"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="169"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -4740,31 +4781,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -4779,13 +4800,33 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4804,7 +4845,7 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="10.83203125" style="2"/>
@@ -4822,10 +4863,10 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" ht="16">
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:6" ht="20">
+    <row r="4" spans="2:6" ht="18">
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
@@ -4833,7 +4874,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="2:6" ht="20">
+    <row r="5" spans="2:6" ht="18">
       <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
@@ -4841,7 +4882,7 @@
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="2:6" ht="20">
+    <row r="6" spans="2:6" ht="18">
       <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
@@ -4855,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="20">
+    <row r="7" spans="2:6" ht="18">
       <c r="C7" s="7">
         <v>1</v>
       </c>
@@ -4869,7 +4910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20">
+    <row r="8" spans="2:6" ht="18">
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -4883,19 +4924,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="20">
+    <row r="9" spans="2:6" ht="18">
       <c r="C9" s="7"/>
       <c r="D9" s="11"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="2:6" ht="20">
+    <row r="10" spans="2:6" ht="18">
       <c r="C10" s="7"/>
       <c r="D10" s="12"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="2:6" ht="20">
+    <row r="11" spans="2:6" ht="18">
       <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
@@ -4903,7 +4944,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="2:6" ht="20">
+    <row r="12" spans="2:6" ht="18">
       <c r="C12" s="14" t="s">
         <v>46</v>
       </c>
@@ -4911,7 +4952,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
     </row>
-    <row r="13" spans="2:6" ht="20">
+    <row r="13" spans="2:6" ht="18">
       <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
@@ -4925,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="20">
+    <row r="14" spans="2:6" ht="18">
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -4939,7 +4980,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="20">
+    <row r="15" spans="2:6" ht="18">
       <c r="C15" s="7">
         <v>2</v>
       </c>
@@ -4953,7 +4994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="20">
+    <row r="16" spans="2:6" ht="18">
       <c r="C16" s="7">
         <v>3</v>
       </c>
@@ -4967,13 +5008,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="20">
+    <row r="17" spans="3:6" ht="18">
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="3:6" ht="20">
+    <row r="18" spans="3:6" ht="18">
       <c r="C18" s="15" t="s">
         <v>50</v>
       </c>
@@ -4981,7 +5022,7 @@
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="3:6" ht="20">
+    <row r="19" spans="3:6" ht="18">
       <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
@@ -4989,7 +5030,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="3:6" ht="20">
+    <row r="20" spans="3:6" ht="18">
       <c r="C20" s="18" t="s">
         <v>24</v>
       </c>
@@ -5003,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="20">
+    <row r="21" spans="3:6" ht="18">
       <c r="C21" s="20">
         <v>1</v>
       </c>
@@ -5017,7 +5058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="20">
+    <row r="22" spans="3:6" ht="18">
       <c r="C22" s="20">
         <v>2</v>
       </c>
@@ -5031,7 +5072,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="20">
+    <row r="23" spans="3:6" ht="18">
       <c r="C23" s="20">
         <v>3</v>
       </c>
@@ -5045,7 +5086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="20">
+    <row r="24" spans="3:6" ht="18">
       <c r="C24" s="20">
         <v>4</v>
       </c>
@@ -5059,7 +5100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="20">
+    <row r="25" spans="3:6" ht="18">
       <c r="C25" s="20">
         <v>5</v>
       </c>
@@ -5073,7 +5114,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="20">
+    <row r="28" spans="3:6" ht="18">
       <c r="C28" s="15" t="s">
         <v>72</v>
       </c>
@@ -5081,7 +5122,7 @@
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="3:6" ht="20">
+    <row r="29" spans="3:6" ht="18">
       <c r="C29" s="17" t="s">
         <v>74</v>
       </c>
@@ -5089,7 +5130,7 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="3:6" ht="20">
+    <row r="30" spans="3:6" ht="18">
       <c r="C30" s="18" t="s">
         <v>24</v>
       </c>
@@ -5103,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="20">
+    <row r="31" spans="3:6" ht="18">
       <c r="C31" s="20">
         <v>1</v>
       </c>
@@ -5117,7 +5158,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="20">
+    <row r="32" spans="3:6" ht="18">
       <c r="C32" s="20">
         <v>2</v>
       </c>
@@ -5131,19 +5172,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="20">
+    <row r="33" spans="3:6" ht="18">
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="26"/>
       <c r="F33" s="32"/>
     </row>
-    <row r="34" spans="3:6" ht="20">
+    <row r="34" spans="3:6" ht="18">
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="26"/>
       <c r="F34" s="32"/>
     </row>
-    <row r="35" spans="3:6" ht="20">
+    <row r="35" spans="3:6" ht="18">
       <c r="C35" s="15" t="s">
         <v>67</v>
       </c>
@@ -5151,7 +5192,7 @@
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="3:6" ht="20">
+    <row r="36" spans="3:6" ht="18">
       <c r="C36" s="17" t="s">
         <v>68</v>
       </c>
@@ -5159,7 +5200,7 @@
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" spans="3:6" ht="20">
+    <row r="37" spans="3:6" ht="18">
       <c r="C37" s="18" t="s">
         <v>24</v>
       </c>
@@ -5173,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="20">
+    <row r="38" spans="3:6" ht="18">
       <c r="C38" s="20">
         <v>1</v>
       </c>
@@ -5187,7 +5228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="20">
+    <row r="39" spans="3:6" ht="18">
       <c r="C39" s="20">
         <v>2</v>
       </c>
@@ -5201,7 +5242,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="20">
+    <row r="40" spans="3:6" ht="18">
       <c r="C40" s="20">
         <v>3</v>
       </c>
@@ -5215,7 +5256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="20">
+    <row r="43" spans="3:6" ht="18">
       <c r="C43" s="15" t="s">
         <v>61</v>
       </c>
@@ -5223,7 +5264,7 @@
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" spans="3:6" ht="20">
+    <row r="44" spans="3:6" ht="18">
       <c r="C44" s="17" t="s">
         <v>60</v>
       </c>
@@ -5231,7 +5272,7 @@
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
     </row>
-    <row r="45" spans="3:6" ht="20">
+    <row r="45" spans="3:6" ht="18">
       <c r="C45" s="18" t="s">
         <v>24</v>
       </c>
@@ -5245,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="20">
+    <row r="46" spans="3:6" ht="18">
       <c r="C46" s="20">
         <v>1</v>
       </c>
@@ -5259,7 +5300,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="20">
+    <row r="47" spans="3:6" ht="18">
       <c r="C47" s="20">
         <v>2</v>
       </c>
@@ -5273,7 +5314,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="20">
+    <row r="50" spans="3:6" ht="18">
       <c r="C50" s="15" t="s">
         <v>62</v>
       </c>
@@ -5281,7 +5322,7 @@
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
     </row>
-    <row r="51" spans="3:6" ht="20">
+    <row r="51" spans="3:6" ht="18">
       <c r="C51" s="17" t="s">
         <v>63</v>
       </c>
@@ -5289,7 +5330,7 @@
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
     </row>
-    <row r="52" spans="3:6" ht="20">
+    <row r="52" spans="3:6" ht="18">
       <c r="C52" s="18" t="s">
         <v>24</v>
       </c>
@@ -5303,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="20">
+    <row r="53" spans="3:6" ht="18">
       <c r="C53" s="20">
         <v>1</v>
       </c>
@@ -5317,7 +5358,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="20">
+    <row r="56" spans="3:6" ht="18">
       <c r="C56" s="15" t="s">
         <v>123</v>
       </c>
@@ -5325,7 +5366,7 @@
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
     </row>
-    <row r="57" spans="3:6" ht="20">
+    <row r="57" spans="3:6" ht="18">
       <c r="C57" s="17" t="s">
         <v>124</v>
       </c>
@@ -5333,7 +5374,7 @@
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
     </row>
-    <row r="58" spans="3:6" ht="20">
+    <row r="58" spans="3:6" ht="18">
       <c r="C58" s="18" t="s">
         <v>24</v>
       </c>
@@ -5347,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="20">
+    <row r="59" spans="3:6" ht="18">
       <c r="C59" s="20">
         <v>1</v>
       </c>
@@ -5362,7 +5403,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1"/>
     <hyperlink ref="E8" r:id="rId2"/>
@@ -5398,7 +5439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5409,11 +5450,11 @@
     <col min="4" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="135" customFormat="1" ht="26" customHeight="1">
+    <row r="1" spans="2:11" s="133" customFormat="1" ht="26" customHeight="1">
       <c r="B1" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="134"/>
+      <c r="C1" s="132"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="45"/>
@@ -5429,7 +5470,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="48"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="134" t="s">
         <v>165</v>
       </c>
       <c r="D4" s="49"/>
@@ -5635,7 +5676,7 @@
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="48"/>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="134" t="s">
         <v>166</v>
       </c>
       <c r="D21" s="49"/>
@@ -5817,7 +5858,7 @@
       <c r="K35" s="55"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -5833,7 +5874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -5849,710 +5890,722 @@
     <col min="8" max="16384" width="10.83203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="120" customFormat="1" ht="26" customHeight="1">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="2:12" s="118" customFormat="1" ht="26" customHeight="1">
+      <c r="B1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="121"/>
+      <c r="C1" s="119"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="204"/>
-      <c r="F4" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="206"/>
+      <c r="F4" s="142" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="123"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
     </row>
     <row r="5" spans="2:12" ht="20" customHeight="1">
-      <c r="B5" s="147">
+      <c r="B5" s="145">
         <v>1</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="207" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="207"/>
-      <c r="F5" s="149" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
+      <c r="D5" s="205" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="205"/>
+      <c r="F5" s="147" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="204"/>
-      <c r="F9" s="144" t="s">
-        <v>232</v>
+      <c r="C9" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="206"/>
+      <c r="F9" s="142" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20" customHeight="1">
-      <c r="B10" s="126">
+      <c r="B10" s="124">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
     </row>
     <row r="11" spans="2:12" ht="20" customHeight="1">
-      <c r="B11" s="126">
+      <c r="B11" s="124">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
     </row>
     <row r="12" spans="2:12" ht="20" customHeight="1">
-      <c r="B12" s="126">
+      <c r="B12" s="124">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
     </row>
     <row r="13" spans="2:12" ht="20" customHeight="1">
-      <c r="B13" s="126">
+      <c r="B13" s="124">
         <v>4</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
     </row>
     <row r="14" spans="2:12" ht="20" customHeight="1">
-      <c r="B14" s="126">
+      <c r="B14" s="124">
         <v>5</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
     </row>
     <row r="15" spans="2:12" ht="20" customHeight="1">
-      <c r="B15" s="126">
+      <c r="B15" s="124">
         <v>6</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="120"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="204"/>
-      <c r="F18" s="144" t="s">
-        <v>232</v>
+      <c r="C18" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="206"/>
+      <c r="F18" s="142" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20" customHeight="1">
-      <c r="B19" s="126">
+      <c r="B19" s="124">
         <v>1</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
     </row>
     <row r="20" spans="2:8" ht="20" customHeight="1">
-      <c r="B20" s="126">
+      <c r="B20" s="124">
         <v>2</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
     </row>
     <row r="21" spans="2:8" ht="20" customHeight="1">
-      <c r="B21" s="126">
+      <c r="B21" s="124">
         <v>3</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
     </row>
     <row r="22" spans="2:8" ht="20" customHeight="1">
-      <c r="B22" s="126">
+      <c r="B22" s="124">
         <v>4</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
     </row>
     <row r="23" spans="2:8" ht="20" customHeight="1">
-      <c r="B23" s="126">
+      <c r="B23" s="124">
         <v>5</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
     </row>
     <row r="24" spans="2:8" ht="20" customHeight="1">
-      <c r="B24" s="126">
+      <c r="B24" s="124">
         <v>6</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="203"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="123" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="122"/>
+      <c r="B26" s="121" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="120"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="204"/>
-      <c r="F27" s="144" t="s">
-        <v>232</v>
+      <c r="C27" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="206"/>
+      <c r="F27" s="142" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="20" customHeight="1">
-      <c r="B28" s="147">
+      <c r="B28" s="145">
         <v>1</v>
       </c>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
     </row>
     <row r="29" spans="2:8" ht="20" customHeight="1">
-      <c r="B29" s="126">
+      <c r="B29" s="124">
         <v>2</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
     </row>
     <row r="30" spans="2:8" ht="20" customHeight="1">
-      <c r="B30" s="126">
+      <c r="B30" s="124">
         <v>3</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="203"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
     </row>
     <row r="31" spans="2:8" ht="20" customHeight="1">
-      <c r="B31" s="126">
+      <c r="B31" s="124">
         <v>4</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
     </row>
     <row r="32" spans="2:8" ht="20" customHeight="1">
-      <c r="B32" s="126">
+      <c r="B32" s="124">
         <v>5</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="203"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
     </row>
     <row r="33" spans="2:8" ht="20" customHeight="1">
-      <c r="B33" s="126">
+      <c r="B33" s="124">
         <v>6</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
     </row>
     <row r="34" spans="2:8" ht="20" customHeight="1">
-      <c r="B34" s="126">
+      <c r="B34" s="124">
         <v>7</v>
       </c>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
     </row>
     <row r="35" spans="2:8" ht="20" customHeight="1">
-      <c r="B35" s="126">
+      <c r="B35" s="124">
         <v>8</v>
       </c>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
     </row>
     <row r="36" spans="2:8" ht="20" customHeight="1">
-      <c r="B36" s="126">
+      <c r="B36" s="124">
         <v>9</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="122"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="120"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="124"/>
-      <c r="C40" s="157" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="204"/>
-      <c r="F40" s="157" t="s">
-        <v>232</v>
+      <c r="B40" s="122"/>
+      <c r="C40" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="206"/>
+      <c r="F40" s="155" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
-      <c r="B41" s="126">
+      <c r="B41" s="124">
         <v>1</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="146"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="144"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
-      <c r="B42" s="126">
+      <c r="B42" s="124">
         <v>2</v>
       </c>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="203"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="146"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="144"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="126">
+      <c r="B43" s="124">
         <v>3</v>
       </c>
-      <c r="C43" s="127" t="s">
+      <c r="C43" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="203"/>
-      <c r="E43" s="203"/>
-      <c r="F43" s="146"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="144"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="126">
+      <c r="B44" s="124">
         <v>4</v>
       </c>
-      <c r="C44" s="127" t="s">
+      <c r="C44" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="203"/>
-      <c r="E44" s="203"/>
-      <c r="F44" s="146"/>
+      <c r="D44" s="204"/>
+      <c r="E44" s="204"/>
+      <c r="F44" s="144"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="126">
+      <c r="B45" s="124">
         <v>5</v>
       </c>
-      <c r="C45" s="127" t="s">
+      <c r="C45" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="203"/>
-      <c r="E45" s="203"/>
-      <c r="F45" s="146"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="144"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="122"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="120"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="124"/>
-      <c r="C49" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" s="204"/>
-      <c r="F49" s="144" t="s">
-        <v>232</v>
+      <c r="B49" s="122"/>
+      <c r="C49" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="206"/>
+      <c r="F49" s="142" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="20" customHeight="1">
-      <c r="B50" s="126">
+      <c r="B50" s="124">
         <v>1</v>
       </c>
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="203"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="146"/>
+      <c r="D50" s="204"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="144"/>
     </row>
     <row r="51" spans="2:6" ht="20" customHeight="1">
-      <c r="B51" s="126">
+      <c r="B51" s="124">
         <v>2</v>
       </c>
-      <c r="C51" s="127" t="s">
+      <c r="C51" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="203"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="146"/>
+      <c r="D51" s="204"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="144"/>
     </row>
     <row r="52" spans="2:6" ht="20" customHeight="1">
-      <c r="B52" s="126">
+      <c r="B52" s="124">
         <v>3</v>
       </c>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="203"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="146"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="144"/>
     </row>
     <row r="53" spans="2:6" ht="20" customHeight="1">
-      <c r="B53" s="126">
+      <c r="B53" s="124">
         <v>4</v>
       </c>
-      <c r="C53" s="127" t="s">
+      <c r="C53" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="203"/>
-      <c r="E53" s="203"/>
-      <c r="F53" s="146"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="144"/>
     </row>
     <row r="54" spans="2:6" ht="20" customHeight="1">
-      <c r="B54" s="126">
+      <c r="B54" s="124">
         <v>5</v>
       </c>
-      <c r="C54" s="127" t="s">
+      <c r="C54" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="203"/>
-      <c r="E54" s="203"/>
-      <c r="F54" s="146"/>
+      <c r="D54" s="204"/>
+      <c r="E54" s="204"/>
+      <c r="F54" s="144"/>
     </row>
     <row r="55" spans="2:6" ht="20" customHeight="1">
-      <c r="B55" s="126">
+      <c r="B55" s="124">
         <v>6</v>
       </c>
-      <c r="C55" s="127" t="s">
+      <c r="C55" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="203"/>
-      <c r="E55" s="203"/>
-      <c r="F55" s="146"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="144"/>
     </row>
     <row r="56" spans="2:6" ht="20" customHeight="1">
-      <c r="B56" s="126">
+      <c r="B56" s="124">
         <v>7</v>
       </c>
-      <c r="C56" s="127" t="s">
+      <c r="C56" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="203"/>
-      <c r="E56" s="203"/>
-      <c r="F56" s="146"/>
+      <c r="D56" s="204"/>
+      <c r="E56" s="204"/>
+      <c r="F56" s="144"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="122"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="120"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="124"/>
-      <c r="C60" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" s="204"/>
-      <c r="F60" s="144" t="s">
-        <v>232</v>
+      <c r="B60" s="122"/>
+      <c r="C60" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="206"/>
+      <c r="F60" s="142" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15" customHeight="1">
-      <c r="B61" s="126">
+      <c r="B61" s="124">
         <v>1</v>
       </c>
-      <c r="C61" s="127" t="s">
+      <c r="C61" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="205"/>
-      <c r="E61" s="206"/>
-      <c r="F61" s="146"/>
+      <c r="D61" s="207"/>
+      <c r="E61" s="208"/>
+      <c r="F61" s="144"/>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1">
-      <c r="B62" s="126">
+      <c r="B62" s="124">
         <v>2</v>
       </c>
-      <c r="C62" s="127" t="s">
+      <c r="C62" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="205"/>
-      <c r="E62" s="206"/>
-      <c r="F62" s="146"/>
+      <c r="D62" s="207"/>
+      <c r="E62" s="208"/>
+      <c r="F62" s="144"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1">
-      <c r="B63" s="126">
+      <c r="B63" s="124">
         <v>3</v>
       </c>
-      <c r="C63" s="127" t="s">
+      <c r="C63" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="205"/>
-      <c r="E63" s="206"/>
-      <c r="F63" s="146"/>
+      <c r="D63" s="207"/>
+      <c r="E63" s="208"/>
+      <c r="F63" s="144"/>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1">
-      <c r="B64" s="126">
+      <c r="B64" s="124">
         <v>4</v>
       </c>
-      <c r="C64" s="127" t="s">
+      <c r="C64" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="205"/>
-      <c r="E64" s="206"/>
-      <c r="F64" s="146"/>
+      <c r="D64" s="207"/>
+      <c r="E64" s="208"/>
+      <c r="F64" s="144"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="126">
+      <c r="B65" s="124">
         <v>5</v>
       </c>
-      <c r="C65" s="127" t="s">
+      <c r="C65" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="205"/>
-      <c r="E65" s="206"/>
-      <c r="F65" s="146"/>
+      <c r="D65" s="207"/>
+      <c r="E65" s="208"/>
+      <c r="F65" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D23:E23"/>
@@ -6569,29 +6622,17 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6606,7 +6647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -6625,7 +6666,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="34" customFormat="1" ht="26" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="131" t="s">
         <v>167</v>
       </c>
       <c r="C1" s="57"/>
@@ -6661,356 +6702,356 @@
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="209"/>
-      <c r="G4" s="104" t="s">
+      <c r="F4" s="210"/>
+      <c r="G4" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="102" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="20" customHeight="1">
-      <c r="B5" s="105">
+      <c r="B5" s="103">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="210" t="s">
+      <c r="D5" s="211" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="I5" s="110"/>
+      <c r="I5" s="108"/>
       <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:14" ht="20" customHeight="1">
-      <c r="B6" s="105">
+      <c r="B6" s="103">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="108"/>
       <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:14" ht="20" customHeight="1">
-      <c r="B7" s="105">
+      <c r="B7" s="103">
         <v>3</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="108"/>
       <c r="J7" s="38"/>
     </row>
     <row r="8" spans="2:14" ht="20" customHeight="1">
-      <c r="B8" s="105">
+      <c r="B8" s="103">
         <v>4</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="110"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="108"/>
       <c r="J8" s="38"/>
     </row>
     <row r="9" spans="2:14" ht="20" customHeight="1">
-      <c r="B9" s="105">
+      <c r="B9" s="103">
         <v>5</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="108"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="2:14" ht="20" customHeight="1">
-      <c r="B10" s="105">
+      <c r="B10" s="103">
         <v>6</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="110" t="s">
-        <v>229</v>
+      <c r="C10" s="104"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="108" t="s">
+        <v>223</v>
       </c>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="2:14" ht="20" customHeight="1">
-      <c r="B11" s="105">
+      <c r="B11" s="103">
         <v>7</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="108"/>
       <c r="J11" s="38"/>
     </row>
     <row r="12" spans="2:14" ht="20" customHeight="1">
-      <c r="B12" s="105">
+      <c r="B12" s="103">
         <v>8</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="213" t="s">
+      <c r="C12" s="109"/>
+      <c r="D12" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="38"/>
     </row>
     <row r="13" spans="2:14" ht="20" customHeight="1">
-      <c r="B13" s="105">
+      <c r="B13" s="103">
         <v>9</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="110" t="s">
-        <v>230</v>
+      <c r="C13" s="109"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="108" t="s">
+        <v>224</v>
       </c>
       <c r="J13" s="38"/>
     </row>
     <row r="14" spans="2:14" ht="20" customHeight="1">
-      <c r="B14" s="105">
+      <c r="B14" s="103">
         <v>10</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="110"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="38"/>
     </row>
     <row r="15" spans="2:14" ht="20" customHeight="1">
-      <c r="B15" s="105">
+      <c r="B15" s="103">
         <v>11</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="110"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="108"/>
       <c r="J15" s="38"/>
     </row>
     <row r="16" spans="2:14" ht="20" customHeight="1">
-      <c r="B16" s="105">
+      <c r="B16" s="103">
         <v>12</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="110"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="38"/>
     </row>
     <row r="17" spans="2:10" ht="20" customHeight="1">
-      <c r="B17" s="105">
+      <c r="B17" s="103">
         <v>13</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="110"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="108"/>
       <c r="J17" s="38"/>
     </row>
     <row r="18" spans="2:10" ht="20" customHeight="1">
-      <c r="B18" s="105">
+      <c r="B18" s="103">
         <v>14</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="110"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="108"/>
       <c r="J18" s="38"/>
     </row>
     <row r="19" spans="2:10" ht="20" customHeight="1">
-      <c r="B19" s="105">
+      <c r="B19" s="103">
         <v>15</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="110"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="108"/>
       <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:10" ht="20" customHeight="1">
-      <c r="B20" s="105">
+      <c r="B20" s="103">
         <v>16</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="215" t="s">
+      <c r="C20" s="113"/>
+      <c r="D20" s="216" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="110"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="108"/>
       <c r="J20" s="38"/>
     </row>
     <row r="21" spans="2:10" ht="20" customHeight="1">
-      <c r="B21" s="105">
+      <c r="B21" s="103">
         <v>17</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="110"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="108"/>
       <c r="J21" s="38"/>
     </row>
     <row r="22" spans="2:10" ht="20" customHeight="1">
-      <c r="B22" s="105">
+      <c r="B22" s="103">
         <v>18</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="110"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="108"/>
       <c r="J22" s="38"/>
     </row>
     <row r="23" spans="2:10" ht="20" customHeight="1">
-      <c r="B23" s="105">
+      <c r="B23" s="103">
         <v>19</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="110"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="108"/>
       <c r="J23" s="38"/>
     </row>
     <row r="24" spans="2:10" ht="20" customHeight="1">
-      <c r="B24" s="105">
+      <c r="B24" s="103">
         <v>20</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="110"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="38"/>
     </row>
     <row r="25" spans="2:10" ht="20" customHeight="1">
-      <c r="B25" s="105">
+      <c r="B25" s="103">
         <v>21</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="110"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="108"/>
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="2:10" ht="20" customHeight="1">
-      <c r="B26" s="105">
+      <c r="B26" s="103">
         <v>22</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="110"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="108"/>
       <c r="J26" s="38"/>
     </row>
     <row r="27" spans="2:10" ht="20" customHeight="1">
-      <c r="B27" s="105">
+      <c r="B27" s="103">
         <v>23</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="110"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="108"/>
       <c r="J27" s="38"/>
     </row>
     <row r="28" spans="2:10" ht="20" customHeight="1">
-      <c r="B28" s="105">
+      <c r="B28" s="103">
         <v>24</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="110"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="108"/>
       <c r="J28" s="38"/>
     </row>
     <row r="29" spans="2:10" ht="20" customHeight="1">
@@ -7053,7 +7094,7 @@
     <mergeCell ref="D12:D19"/>
     <mergeCell ref="D20:D25"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -7066,10 +7107,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7110,8 +7151,8 @@
       <c r="A2" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="156" t="s">
-        <v>247</v>
+      <c r="B2" s="154" t="s">
+        <v>241</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -7151,14 +7192,14 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="221" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
       <c r="I4" s="220"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
@@ -7172,14 +7213,14 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="218" t="s">
+      <c r="C5" s="221" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
       <c r="I5" s="220"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
@@ -7193,8 +7234,8 @@
       <c r="B6" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="103" t="s">
-        <v>180</v>
+      <c r="C6" s="235" t="s">
+        <v>242</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -7212,16 +7253,16 @@
     <row r="7" spans="1:15" ht="20" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="218" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="231"/>
       <c r="I7" s="220"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
@@ -7233,7 +7274,7 @@
     <row r="8" spans="1:15" ht="20" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C8" s="71" t="s">
         <v>24</v>
@@ -7254,16 +7295,16 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="218" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
+        <v>219</v>
+      </c>
+      <c r="C9" s="221" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
       <c r="I9" s="220"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
@@ -7292,7 +7333,7 @@
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="74" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="66"/>
@@ -7368,11 +7409,11 @@
       <c r="I14" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="221" t="s">
+      <c r="J14" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="221"/>
-      <c r="L14" s="221"/>
+      <c r="K14" s="234"/>
+      <c r="L14" s="234"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -7381,28 +7422,28 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="E15" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="80" t="s">
-        <v>183</v>
-      </c>
       <c r="F15" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G15" s="80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="80">
         <v>50</v>
       </c>
-      <c r="I15" s="81" t="s">
-        <v>184</v>
+      <c r="I15" s="236" t="s">
+        <v>243</v>
       </c>
       <c r="J15" s="230" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K15" s="230"/>
       <c r="L15" s="230"/>
@@ -7414,28 +7455,28 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E16" s="80" t="s">
         <v>143</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G16" s="80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" s="80">
         <v>50</v>
       </c>
-      <c r="I16" s="81" t="s">
-        <v>188</v>
+      <c r="I16" s="236" t="s">
+        <v>244</v>
       </c>
       <c r="J16" s="230" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K16" s="230"/>
       <c r="L16" s="230"/>
@@ -7447,16 +7488,16 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>140</v>
@@ -7464,11 +7505,11 @@
       <c r="H17" s="80">
         <v>50</v>
       </c>
-      <c r="I17" s="81" t="s">
-        <v>196</v>
+      <c r="I17" s="236" t="s">
+        <v>245</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K17" s="72"/>
       <c r="L17" s="73"/>
@@ -7480,16 +7521,16 @@
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E18" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="80" t="s">
-        <v>206</v>
+      <c r="F18" s="239" t="s">
+        <v>200</v>
       </c>
       <c r="G18" s="80" t="s">
         <v>140</v>
@@ -7497,13 +7538,13 @@
       <c r="H18" s="80">
         <v>50</v>
       </c>
-      <c r="I18" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="218" t="s">
-        <v>200</v>
-      </c>
-      <c r="K18" s="219"/>
+      <c r="I18" s="151" t="s">
+        <v>246</v>
+      </c>
+      <c r="J18" s="221" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="231"/>
       <c r="L18" s="220"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
@@ -7511,355 +7552,351 @@
     </row>
     <row r="19" spans="1:15" ht="20" customHeight="1">
       <c r="A19" s="66"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>144</v>
+      <c r="B19" s="77"/>
+      <c r="C19" s="149" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="150" t="s">
+        <v>182</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="80" t="s">
-        <v>140</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G19" s="80"/>
       <c r="H19" s="80">
-        <v>255</v>
-      </c>
-      <c r="I19" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="J19" s="218" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="219"/>
-      <c r="L19" s="220"/>
+        <v>100</v>
+      </c>
+      <c r="I19" s="237" t="s">
+        <v>247</v>
+      </c>
+      <c r="J19" s="158" t="s">
+        <v>248</v>
+      </c>
+      <c r="K19" s="156"/>
+      <c r="L19" s="157"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
     </row>
     <row r="20" spans="1:15" ht="20" customHeight="1">
       <c r="A20" s="66"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="149" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="151" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="150" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="240">
+        <v>42005</v>
+      </c>
+      <c r="J20" s="158" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" s="156"/>
+      <c r="L20" s="157"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
     </row>
     <row r="21" spans="1:15" ht="20" customHeight="1">
       <c r="A21" s="66"/>
-      <c r="B21" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="80">
+        <v>255</v>
+      </c>
+      <c r="I21" s="241">
+        <v>42005</v>
+      </c>
+      <c r="J21" s="221" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="231"/>
+      <c r="L21" s="220"/>
       <c r="M21" s="66"/>
       <c r="N21" s="66"/>
       <c r="O21" s="66"/>
     </row>
     <row r="22" spans="1:15" ht="20" customHeight="1">
       <c r="A22" s="66"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
       <c r="M22" s="66"/>
       <c r="N22" s="66"/>
       <c r="O22" s="66"/>
     </row>
     <row r="23" spans="1:15" ht="20" customHeight="1">
       <c r="A23" s="66"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
+      <c r="B23" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
       <c r="M23" s="66"/>
       <c r="N23" s="66"/>
       <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
       <c r="M24" s="66"/>
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
       <c r="M25" s="66"/>
       <c r="N25" s="66"/>
       <c r="O25" s="66"/>
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
       <c r="M26" s="66"/>
       <c r="N26" s="66"/>
       <c r="O26" s="66"/>
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
       <c r="M27" s="66"/>
       <c r="N27" s="66"/>
       <c r="O27" s="66"/>
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
       <c r="M28" s="66"/>
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
     </row>
-    <row r="29" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:15" s="87" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="231" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="231"/>
-      <c r="D29" s="231"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="69"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
       <c r="M29" s="69"/>
       <c r="N29" s="69"/>
       <c r="O29" s="69"/>
     </row>
-    <row r="30" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="224" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="225"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="J30" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="K30" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="L30" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
+    <row r="30" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
+      <c r="A30" s="88"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="66"/>
-      <c r="B31" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="I31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="J31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="L31" s="79"/>
+      <c r="B31" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="238"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="69"/>
       <c r="M31" s="66"/>
       <c r="N31" s="66"/>
       <c r="O31" s="66"/>
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="66"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="G32" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I32" s="80">
-        <v>1</v>
-      </c>
-      <c r="J32" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K32" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="L32" s="79"/>
+      <c r="B32" s="224" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="225"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="L32" s="76" t="s">
+        <v>221</v>
+      </c>
       <c r="M32" s="66"/>
       <c r="N32" s="66"/>
       <c r="O32" s="66"/>
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
       <c r="A33" s="66"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="218" t="s">
-        <v>211</v>
-      </c>
-      <c r="E33" s="220"/>
-      <c r="F33" s="78" t="s">
-        <v>148</v>
+      <c r="B33" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="80" t="s">
+        <v>145</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I33" s="80">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="I33" s="80" t="s">
+        <v>145</v>
       </c>
       <c r="J33" s="80" t="s">
         <v>145</v>
       </c>
       <c r="K33" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L33" s="79" t="s">
-        <v>139</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="L33" s="79"/>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
     </row>
     <row r="34" spans="1:15" ht="20" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="218" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="220"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="94"/>
+      <c r="E34" s="92"/>
       <c r="F34" s="78" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G34" s="80" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H34" s="80" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="I34" s="80">
         <v>1</v>
@@ -7868,31 +7905,29 @@
         <v>145</v>
       </c>
       <c r="K34" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L34" s="79" t="s">
-        <v>214</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="L34" s="79"/>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
       <c r="O34" s="66"/>
     </row>
     <row r="35" spans="1:15" ht="20" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="96"/>
-      <c r="E35" s="94"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="221" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="220"/>
       <c r="F35" s="78" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="G35" s="80" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H35" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I35" s="80">
         <v>1</v>
@@ -7904,7 +7939,7 @@
         <v>153</v>
       </c>
       <c r="L35" s="79" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -7912,32 +7947,32 @@
     </row>
     <row r="36" spans="1:15" ht="20" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="218" t="s">
-        <v>215</v>
+      <c r="B36" s="90"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="221" t="s">
+        <v>206</v>
       </c>
       <c r="E36" s="220"/>
       <c r="F36" s="78" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="I36" s="80">
         <v>1</v>
       </c>
       <c r="J36" s="80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K36" s="80" t="s">
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -7945,32 +7980,32 @@
     </row>
     <row r="37" spans="1:15" ht="20" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="222" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" s="223"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="94"/>
+      <c r="E37" s="92"/>
       <c r="F37" s="78" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I37" s="80">
         <v>1</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -7978,20 +8013,20 @@
     </row>
     <row r="38" spans="1:15" ht="20" customHeight="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="218" t="s">
-        <v>201</v>
+      <c r="B38" s="90"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="221" t="s">
+        <v>209</v>
       </c>
       <c r="E38" s="220"/>
       <c r="F38" s="78" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I38" s="80">
         <v>1</v>
@@ -8003,7 +8038,7 @@
         <v>140</v>
       </c>
       <c r="L38" s="79" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -8011,20 +8046,20 @@
     </row>
     <row r="39" spans="1:15" ht="20" customHeight="1">
       <c r="A39" s="66"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="E39" s="73"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="223"/>
       <c r="F39" s="78" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I39" s="80">
         <v>1</v>
@@ -8036,7 +8071,7 @@
         <v>140</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -8044,32 +8079,32 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="66"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="103" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="145"/>
-      <c r="F40" s="151" t="s">
-        <v>203</v>
+      <c r="B40" s="90"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="221" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="220"/>
+      <c r="F40" s="78" t="s">
+        <v>191</v>
       </c>
       <c r="G40" s="80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H40" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I40" s="80">
         <v>1</v>
       </c>
       <c r="J40" s="80" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K40" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="L40" s="153" t="s">
-        <v>246</v>
+      <c r="L40" s="79" t="s">
+        <v>213</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -8077,32 +8112,32 @@
     </row>
     <row r="41" spans="1:15" ht="20" customHeight="1">
       <c r="A41" s="66"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="218" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="220"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="73"/>
       <c r="F41" s="78" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="G41" s="80" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I41" s="80">
         <v>1</v>
       </c>
       <c r="J41" s="80" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K41" s="80" t="s">
         <v>140</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -8110,510 +8145,510 @@
     </row>
     <row r="42" spans="1:15" ht="20" customHeight="1">
       <c r="A42" s="66"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="84"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" s="143"/>
+      <c r="F42" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" s="80">
+        <v>1</v>
+      </c>
+      <c r="J42" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="K42" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="L42" s="151" t="s">
+        <v>240</v>
+      </c>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
       <c r="O42" s="66"/>
     </row>
     <row r="43" spans="1:15" ht="20" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C43" s="93"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="84"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="221" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="220"/>
+      <c r="F43" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="H43" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="80">
+        <v>1</v>
+      </c>
+      <c r="J43" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K43" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" s="79" t="s">
+        <v>215</v>
+      </c>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
       <c r="O43" s="66"/>
     </row>
     <row r="44" spans="1:15" ht="20" customHeight="1">
       <c r="A44" s="66"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="84"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="82"/>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
       <c r="O44" s="66"/>
     </row>
     <row r="45" spans="1:15" ht="20" customHeight="1">
       <c r="A45" s="66"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="84"/>
+      <c r="B45" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="91"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="82"/>
       <c r="M45" s="66"/>
       <c r="N45" s="66"/>
       <c r="O45" s="66"/>
     </row>
     <row r="46" spans="1:15" ht="20" customHeight="1">
       <c r="A46" s="66"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="84"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="82"/>
       <c r="M46" s="66"/>
       <c r="N46" s="66"/>
       <c r="O46" s="66"/>
     </row>
     <row r="47" spans="1:15" ht="20" customHeight="1">
       <c r="A47" s="66"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="84"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="82"/>
       <c r="M47" s="66"/>
       <c r="N47" s="66"/>
       <c r="O47" s="66"/>
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="84"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="82"/>
       <c r="M48" s="66"/>
       <c r="N48" s="66"/>
       <c r="O48" s="66"/>
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="66"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="84"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="82"/>
       <c r="M49" s="66"/>
       <c r="N49" s="66"/>
       <c r="O49" s="66"/>
     </row>
     <row r="50" spans="1:15" ht="20" customHeight="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="84"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="82"/>
       <c r="M50" s="66"/>
       <c r="N50" s="66"/>
       <c r="O50" s="66"/>
     </row>
     <row r="51" spans="1:15" ht="20" customHeight="1">
       <c r="A51" s="66"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="84"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="82"/>
       <c r="M51" s="66"/>
       <c r="N51" s="66"/>
       <c r="O51" s="66"/>
     </row>
     <row r="52" spans="1:15" ht="20" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="84"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="82"/>
       <c r="M52" s="66"/>
       <c r="N52" s="66"/>
       <c r="O52" s="66"/>
     </row>
     <row r="53" spans="1:15" ht="20" customHeight="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="84"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="82"/>
       <c r="M53" s="66"/>
       <c r="N53" s="66"/>
       <c r="O53" s="66"/>
     </row>
     <row r="54" spans="1:15" ht="20" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="84"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="82"/>
       <c r="M54" s="66"/>
       <c r="N54" s="66"/>
       <c r="O54" s="66"/>
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="84"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="82"/>
       <c r="M55" s="66"/>
       <c r="N55" s="66"/>
       <c r="O55" s="66"/>
     </row>
     <row r="56" spans="1:15" ht="20" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="84"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="82"/>
       <c r="M56" s="66"/>
       <c r="N56" s="66"/>
       <c r="O56" s="66"/>
     </row>
     <row r="57" spans="1:15" ht="20" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="84"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="82"/>
       <c r="M57" s="66"/>
       <c r="N57" s="66"/>
       <c r="O57" s="66"/>
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="84"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="82"/>
       <c r="M58" s="66"/>
       <c r="N58" s="66"/>
       <c r="O58" s="66"/>
     </row>
     <row r="59" spans="1:15" ht="20" customHeight="1">
       <c r="A59" s="66"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="82"/>
       <c r="M59" s="66"/>
       <c r="N59" s="66"/>
       <c r="O59" s="66"/>
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="232" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="232"/>
-      <c r="D60" s="232"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="98"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="98"/>
+      <c r="K60" s="98"/>
+      <c r="L60" s="82"/>
       <c r="M60" s="66"/>
       <c r="N60" s="66"/>
       <c r="O60" s="66"/>
     </row>
-    <row r="61" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
-      <c r="A61" s="90"/>
-      <c r="B61" s="224" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="225"/>
-      <c r="D61" s="225"/>
-      <c r="E61" s="226"/>
-      <c r="F61" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="H61" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I61" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="J61" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="K61" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="L61" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="M61" s="90"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
+    <row r="61" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
+      <c r="A61" s="88"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
     </row>
     <row r="62" spans="1:15" ht="20" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="80" t="s">
+      <c r="B62" s="238" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="238"/>
+      <c r="D62" s="238"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="G62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="I62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="J62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="L62" s="79"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
       <c r="O62" s="66"/>
     </row>
     <row r="63" spans="1:15" ht="20" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="96"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="G63" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I63" s="80">
-        <v>1</v>
-      </c>
-      <c r="J63" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K63" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L63" s="79"/>
+      <c r="B63" s="224" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="225"/>
+      <c r="D63" s="225"/>
+      <c r="E63" s="226"/>
+      <c r="F63" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="J63" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="K63" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="L63" s="76" t="s">
+        <v>0</v>
+      </c>
       <c r="M63" s="66"/>
       <c r="N63" s="66"/>
       <c r="O63" s="66"/>
     </row>
     <row r="64" spans="1:15" ht="20" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="233" t="s">
-        <v>211</v>
-      </c>
-      <c r="E64" s="220"/>
-      <c r="F64" s="78" t="s">
-        <v>148</v>
+      <c r="B64" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="80" t="s">
+        <v>145</v>
       </c>
       <c r="G64" s="80" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H64" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I64" s="80">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="I64" s="80" t="s">
+        <v>145</v>
       </c>
       <c r="J64" s="80" t="s">
         <v>145</v>
       </c>
       <c r="K64" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L64" s="153" t="s">
-        <v>239</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="L64" s="79"/>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
       <c r="O64" s="66"/>
     </row>
     <row r="65" spans="1:15" ht="20" customHeight="1">
       <c r="A65" s="66"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="234"/>
-      <c r="F65" s="151" t="s">
-        <v>237</v>
-      </c>
-      <c r="G65" s="152" t="s">
-        <v>183</v>
+      <c r="B65" s="90"/>
+      <c r="C65" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="94"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="G65" s="80" t="s">
+        <v>145</v>
       </c>
       <c r="H65" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I65" s="80">
         <v>1</v>
       </c>
-      <c r="J65" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="K65" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="L65" s="153" t="s">
-        <v>238</v>
-      </c>
+      <c r="J65" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K65" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="L65" s="79"/>
       <c r="M65" s="66"/>
       <c r="N65" s="66"/>
       <c r="O65" s="66"/>
     </row>
     <row r="66" spans="1:15" ht="20" customHeight="1">
       <c r="A66" s="66"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="235" t="s">
-        <v>242</v>
-      </c>
-      <c r="E66" s="234"/>
-      <c r="F66" s="151" t="s">
-        <v>240</v>
+      <c r="B66" s="90"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="219" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" s="220"/>
+      <c r="F66" s="78" t="s">
+        <v>148</v>
       </c>
       <c r="G66" s="80" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H66" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I66" s="80">
         <v>1</v>
@@ -8624,8 +8659,8 @@
       <c r="K66" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="L66" s="153" t="s">
-        <v>245</v>
+      <c r="L66" s="151" t="s">
+        <v>233</v>
       </c>
       <c r="M66" s="66"/>
       <c r="N66" s="66"/>
@@ -8633,32 +8668,32 @@
     </row>
     <row r="67" spans="1:15" ht="20" customHeight="1">
       <c r="A67" s="66"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="154" t="s">
-        <v>243</v>
-      </c>
-      <c r="F67" s="151" t="s">
-        <v>213</v>
-      </c>
-      <c r="G67" s="152" t="s">
-        <v>183</v>
+      <c r="B67" s="90"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="232"/>
+      <c r="F67" s="149" t="s">
+        <v>231</v>
+      </c>
+      <c r="G67" s="150" t="s">
+        <v>182</v>
       </c>
       <c r="H67" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I67" s="152" t="s">
-        <v>241</v>
-      </c>
-      <c r="J67" s="152" t="s">
+        <v>200</v>
+      </c>
+      <c r="I67" s="80">
+        <v>1</v>
+      </c>
+      <c r="J67" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="K67" s="152" t="s">
+      <c r="K67" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="L67" s="153" t="s">
-        <v>244</v>
+      <c r="L67" s="151" t="s">
+        <v>232</v>
       </c>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>
@@ -8666,20 +8701,20 @@
     </row>
     <row r="68" spans="1:15" ht="20" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="D68" s="96"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="78" t="s">
-        <v>208</v>
+      <c r="B68" s="90"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="233" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" s="232"/>
+      <c r="F68" s="149" t="s">
+        <v>234</v>
       </c>
       <c r="G68" s="80" t="s">
         <v>145</v>
       </c>
       <c r="H68" s="80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I68" s="80">
         <v>1</v>
@@ -8690,84 +8725,116 @@
       <c r="K68" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="L68" s="79"/>
+      <c r="L68" s="151" t="s">
+        <v>239</v>
+      </c>
       <c r="M68" s="66"/>
       <c r="N68" s="66"/>
       <c r="O68" s="66"/>
     </row>
     <row r="69" spans="1:15" ht="20" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="218"/>
-      <c r="E69" s="220"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="79"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="152" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" s="149" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" s="150" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" s="150" t="s">
+        <v>235</v>
+      </c>
+      <c r="J69" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="K69" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="L69" s="151" t="s">
+        <v>238</v>
+      </c>
       <c r="M69" s="66"/>
       <c r="N69" s="66"/>
       <c r="O69" s="66"/>
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="100"/>
-      <c r="L70" s="84"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="94"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="G70" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="I70" s="80">
+        <v>1</v>
+      </c>
+      <c r="J70" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K70" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="L70" s="79"/>
       <c r="M70" s="66"/>
       <c r="N70" s="66"/>
       <c r="O70" s="66"/>
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="221"/>
+      <c r="E71" s="220"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="79"/>
       <c r="M71" s="66"/>
       <c r="N71" s="66"/>
       <c r="O71" s="66"/>
     </row>
     <row r="72" spans="1:15" ht="20" customHeight="1">
       <c r="A72" s="66"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="98"/>
+      <c r="J72" s="98"/>
+      <c r="K72" s="98"/>
+      <c r="L72" s="82"/>
       <c r="M72" s="66"/>
       <c r="N72" s="66"/>
       <c r="O72" s="66"/>
     </row>
     <row r="73" spans="1:15" ht="20" customHeight="1">
       <c r="A73" s="66"/>
-      <c r="B73" s="66"/>
+      <c r="B73" s="74" t="s">
+        <v>218</v>
+      </c>
       <c r="C73" s="66"/>
       <c r="D73" s="66"/>
       <c r="E73" s="66"/>
@@ -9072,58 +9139,120 @@
       <c r="O90" s="66"/>
     </row>
     <row r="91" spans="1:15" ht="20" customHeight="1">
-      <c r="A91" s="101"/>
-      <c r="B91" s="101"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="M91" s="101"/>
-      <c r="N91" s="101"/>
-      <c r="O91" s="101"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="M91" s="99"/>
+      <c r="N91" s="99"/>
+      <c r="O91" s="99"/>
+    </row>
+    <row r="92" spans="1:15" ht="20" customHeight="1">
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="66"/>
+    </row>
+    <row r="93" spans="1:15" ht="20" customHeight="1">
+      <c r="B93" s="99"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="99"/>
+      <c r="I93" s="99"/>
+      <c r="J93" s="99"/>
+      <c r="K93" s="99"/>
+      <c r="L93" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B63:E63"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
     <hyperlink ref="I16" r:id="rId2" display="foo@mulodo.com"/>
-    <hyperlink ref="I19" r:id="rId3"/>
+    <hyperlink ref="I21" r:id="rId3" display="le.dong@mulodo.com"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="I19" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId6"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
